--- a/doc/データベース設計.xlsx
+++ b/doc/データベース設計.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t>テーブル名（日本語）</t>
     <rPh sb="4" eb="5">
@@ -119,10 +119,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FINISHED_DATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PRIORITY</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -277,6 +273,45 @@
   </si>
   <si>
     <t>TASK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STATUS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:C, 1:B, 2:A, 3:S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:未着手, 1:作業中, 2:中断, 3:完了</t>
+    <rPh sb="2" eb="5">
+      <t>ミチャクシュ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>サギョウチュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FINISHED_DATE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -421,13 +456,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -445,6 +477,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,9 +787,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J24"/>
+  <dimension ref="B1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -764,414 +801,445 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="8" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="5" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="7" t="s">
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2">
         <v>50</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="8" t="s">
+      <c r="K15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="5" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="7" t="s">
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J22" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D3:J4"/>
-    <mergeCell ref="D18:J19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D3:J4"/>
+    <mergeCell ref="D19:J20"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="G5:G6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>

--- a/doc/データベース設計.xlsx
+++ b/doc/データベース設計.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t>テーブル名（日本語）</t>
     <rPh sb="4" eb="5">
@@ -119,15 +119,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PRIORITY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IMPORTANCE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>URGENCY</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -160,13 +152,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>優先度</t>
-    <rPh sb="0" eb="3">
-      <t>ユウセンド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>重要度</t>
     <rPh sb="0" eb="3">
       <t>ジュウヨウド</t>
@@ -174,13 +159,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>緊急度</t>
-    <rPh sb="0" eb="3">
-      <t>キンキュウド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>期限</t>
     <rPh sb="0" eb="2">
       <t>キゲン</t>
@@ -311,7 +289,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FINISHED_DATE</t>
+    <t>COMPLETED_DATE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -460,6 +438,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -477,9 +458,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,10 +765,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K25"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -803,7 +783,7 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
@@ -813,13 +793,13 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
@@ -828,13 +808,13 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
@@ -849,7 +829,7 @@
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -883,17 +863,17 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -904,16 +884,16 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2">
         <v>50</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -922,24 +902,24 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
@@ -947,10 +927,10 @@
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2">
         <v>1000</v>
@@ -966,14 +946,14 @@
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -982,13 +962,13 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
@@ -1002,245 +982,201 @@
         <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="4" t="s">
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="G23" s="2"/>
       <c r="H23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D3:J4"/>
+    <mergeCell ref="D17:J18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D3:J4"/>
-    <mergeCell ref="D19:J20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/データベース設計.xlsx
+++ b/doc/データベース設計.xlsx
@@ -769,8 +769,8 @@
   <dimension ref="B1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M17" sqref="M17"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/データベース設計.xlsx
+++ b/doc/データベース設計.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,9 +438,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -458,6 +455,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,7 +770,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P15" sqref="P15"/>
+      <selection pane="topRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -793,13 +793,13 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
@@ -808,13 +808,13 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
@@ -829,7 +829,7 @@
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -1025,13 +1025,13 @@
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
@@ -1040,13 +1040,13 @@
       <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
@@ -1061,7 +1061,7 @@
       <c r="E19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
@@ -1159,6 +1159,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="H5:H6"/>
@@ -1167,16 +1177,6 @@
     <mergeCell ref="D17:J18"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/データベース設計.xlsx
+++ b/doc/データベース設計.xlsx
@@ -438,6 +438,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -455,9 +458,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,7 +770,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C25" sqref="C25"/>
+      <selection pane="topRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -793,13 +793,13 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
@@ -808,13 +808,13 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
@@ -829,7 +829,7 @@
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -860,10 +860,10 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>27</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>28</v>
@@ -902,10 +902,10 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>45</v>
@@ -924,10 +924,10 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>28</v>
@@ -943,10 +943,10 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
@@ -962,10 +962,10 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
@@ -979,10 +979,10 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>31</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>30</v>
@@ -1025,13 +1025,13 @@
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
@@ -1040,13 +1040,13 @@
       <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
@@ -1061,7 +1061,7 @@
       <c r="E19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
@@ -1159,16 +1159,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="H5:H6"/>
@@ -1177,6 +1167,16 @@
     <mergeCell ref="D17:J18"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/データベース設計.xlsx
+++ b/doc/データベース設計.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>テーブル名（日本語）</t>
     <rPh sb="4" eb="5">
@@ -438,9 +438,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -458,6 +455,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,7 +770,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B31" sqref="B31"/>
+      <selection pane="topRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -793,13 +793,13 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
@@ -808,13 +808,13 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
@@ -829,7 +829,7 @@
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -1025,13 +1025,13 @@
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
@@ -1040,13 +1040,13 @@
       <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
@@ -1061,7 +1061,7 @@
       <c r="E19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
@@ -1147,9 +1147,7 @@
         <v>30</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F23" s="3"/>
       <c r="G23" s="2"/>
       <c r="H23" s="3" t="s">
         <v>32</v>
@@ -1159,6 +1157,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="H5:H6"/>
@@ -1167,16 +1175,6 @@
     <mergeCell ref="D17:J18"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/データベース設計.xlsx
+++ b/doc/データベース設計.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>テーブル名（日本語）</t>
     <rPh sb="4" eb="5">
@@ -438,6 +438,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -455,9 +458,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,11 +766,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:K23"/>
+  <dimension ref="B1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G31" sqref="G31"/>
+      <selection pane="topRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -793,13 +793,13 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
@@ -808,13 +808,13 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
@@ -829,7 +829,7 @@
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -1025,13 +1025,13 @@
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
@@ -1040,13 +1040,13 @@
       <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
@@ -1061,7 +1061,7 @@
       <c r="E19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
@@ -1092,62 +1092,64 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="3" t="s">
         <v>32</v>
@@ -1155,18 +1157,27 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="H5:H6"/>
@@ -1175,6 +1186,16 @@
     <mergeCell ref="D17:J18"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/データベース設計.xlsx
+++ b/doc/データベース設計.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>テーブル名（日本語）</t>
     <rPh sb="4" eb="5">
@@ -290,6 +290,17 @@
   </si>
   <si>
     <t>COMPLETED_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新日</t>
+    <rPh sb="0" eb="5">
+      <t>サイシュウコウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -438,9 +449,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -458,6 +466,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,11 +777,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:K24"/>
+  <dimension ref="B1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D29" sqref="D29"/>
+      <selection pane="topRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -793,13 +804,13 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
@@ -808,13 +819,13 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
@@ -829,7 +840,7 @@
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -1018,157 +1029,157 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="7" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F20" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="3" t="s">
         <v>32</v>
@@ -1176,26 +1187,45 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D3:J4"/>
-    <mergeCell ref="D17:J18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D3:J4"/>
+    <mergeCell ref="D18:J19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
